--- a/biology/Botanique/Chromolaena/Chromolaena.xlsx
+++ b/biology/Botanique/Chromolaena/Chromolaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chromolaena est un genre de plantes vivaces et d'arbustes de la famille des Asteraceae.
 </t>
@@ -511,17 +523,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Chromolaena comporte environ 165 espèces. 
-Selon NCBI  (2 oct. 2011)[1] :
+Selon NCBI  (2 oct. 2011) :
 Chromolaena borinquensis
 Chromolaena collina
 Chromolaena haenkeana
 Chromolaena odorata
 Chromolaena sagittata
 Chromolaena squalida
-Selon ITIS      (2 oct. 2011)[2] :
+Selon ITIS      (2 oct. 2011) :
 Chromolaena bigelovii (Gray) R.M.King &amp; H.Rob.
 Chromolaena borinquensis (Britton) R.M.King &amp; H.Rob.
 Chromolaena corymbosa (Aubl.) R.M.King &amp; H. Rob.
@@ -562,9 +576,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre, Chromolaena, est dérivé du grec χρῶμα (chroma), qui signifie « de couleur », et λαινα (laina), signifiant « manteau ». Il se réfère à la couleur des bractées de certaines espèces[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre, Chromolaena, est dérivé du grec χρῶμα (chroma), qui signifie « de couleur », et λαινα (laina), signifiant « manteau ». Il se réfère à la couleur des bractées de certaines espèces. 
 </t>
         </is>
       </c>
@@ -593,9 +609,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chromolaena sont originaires des Amériques, du sud des États-Unis à l'Amérique du Sud (en particulier le Brésil)[3]. Une espèce, Chromolaena odorata, a été introduite dans de nombreuses parties du monde, où elle est considérée comme une mauvaise herbe[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chromolaena sont originaires des Amériques, du sud des États-Unis à l'Amérique du Sud (en particulier le Brésil). Une espèce, Chromolaena odorata, a été introduite dans de nombreuses parties du monde, où elle est considérée comme une mauvaise herbe. 
 </t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces du genre Chromolaena ont été initialement classées dans le genre Eupatorium, mais elles sont maintenant considérées comme étant plus étroitement liés à d'autres genres de la tribu Eupatorieae[5]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces du genre Chromolaena ont été initialement classées dans le genre Eupatorium, mais elles sont maintenant considérées comme étant plus étroitement liés à d'autres genres de la tribu Eupatorieae. 
 </t>
         </is>
       </c>
